--- a/test/data2.xlsx
+++ b/test/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyoung/ryayoung/python-packages/tsopt/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77029F84-3D83-7043-BC57-26E1B8496FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A5FB2C-88D6-1B4A-9266-6A625F13EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23120" yWindow="10080" windowWidth="34560" windowHeight="21580" activeTab="7" xr2:uid="{7331F2A5-06C7-524A-A2F1-39512633D845}"/>
   </bookViews>
@@ -2049,7 +2049,7 @@
   <dimension ref="C3:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
